--- a/pred_ohlcv/54_21/2019-10-16 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 DAC ohlcv.xlsx
@@ -12378,7 +12378,7 @@
         <v>-747237.6205139039</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-447087.8895139039</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-551991.7485139039</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-551991.7485139039</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-551991.7485139039</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-264611.507513904</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-264611.507513904</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-1239207.058513904</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-1574204.376513903</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-1583262.894513903</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-2120927.145513903</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-1988271.928513903</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-1708540.099513903</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-1951173.114513903</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-1684188.297513903</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-1980353.811513903</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-1729278.801513903</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-1729278.801513903</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-1880647.782513903</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-1587487.623513903</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-1250575.105513903</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-1871580.318813903</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-1542900.159813903</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-360651.9548139034</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-360651.9548139034</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>2161887.589086097</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>2161887.589086097</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>2554051.522786097</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>760669.3703860966</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>1000024.742386097</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>732851.8703860966</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>510499.1680860966</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>1653867.301886097</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>1964282.857886096</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>1673510.827286097</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>2005628.151286097</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>2005628.151286097</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-250866.3044139034</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-376144.4964139034</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-76971.20341390342</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>156142.3065860966</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-137495.3804139034</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-137495.3804139034</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-43252.91441390339</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-16 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 DAC ohlcv.xlsx
@@ -13808,7 +13808,7 @@
         <v>-1729278.801513903</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-1800415.608513903</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-1871580.318813903</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-1542900.159813903</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-974545.1078139034</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-666194.9528139033</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-358045.9738139033</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-664457.0738139034</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-360651.9548139034</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>2161887.589086097</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>2161887.589086097</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>2554051.522786097</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>2131593.220786097</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>1905775.108986097</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>760669.3703860966</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>1000024.742386097</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>732851.8703860966</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>510499.1680860966</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>1653867.301886097</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>1964282.857886096</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>1673510.827286097</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>1673510.827286097</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>2005628.151286097</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>2005628.151286097</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-502132.9104139034</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-250866.3044139034</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-76971.20341390342</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-76971.20341390342</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>156142.3065860966</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>156142.3065860966</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>156142.3065860966</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-137495.3804139034</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
